--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serping1-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serping1-Selp.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.719429</v>
+        <v>44.8529195</v>
       </c>
       <c r="H2">
-        <v>31.438858</v>
+        <v>89.705839</v>
       </c>
       <c r="I2">
-        <v>0.03655557182726898</v>
+        <v>0.09328277884630309</v>
       </c>
       <c r="J2">
-        <v>0.02735130335739091</v>
+        <v>0.07358468181289031</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N2">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O2">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P2">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q2">
-        <v>519.4495137693126</v>
+        <v>1119.443156790835</v>
       </c>
       <c r="R2">
-        <v>2077.79805507725</v>
+        <v>4477.772627163342</v>
       </c>
       <c r="S2">
-        <v>0.02522560724655871</v>
+        <v>0.06939294784121508</v>
       </c>
       <c r="T2">
-        <v>0.01635673855160525</v>
+        <v>0.0486522776770066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.719429</v>
+        <v>44.8529195</v>
       </c>
       <c r="H3">
-        <v>31.438858</v>
+        <v>89.705839</v>
       </c>
       <c r="I3">
-        <v>0.03655557182726898</v>
+        <v>0.09328277884630309</v>
       </c>
       <c r="J3">
-        <v>0.02735130335739091</v>
+        <v>0.07358468181289031</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N3">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O3">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P3">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q3">
-        <v>3.070774735721</v>
+        <v>28.54954110456933</v>
       </c>
       <c r="R3">
-        <v>18.424648414326</v>
+        <v>171.297246627416</v>
       </c>
       <c r="S3">
-        <v>0.000149123553632498</v>
+        <v>0.001769752045686206</v>
       </c>
       <c r="T3">
-        <v>0.0001450416012672483</v>
+        <v>0.001861193477682964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.719429</v>
+        <v>44.8529195</v>
       </c>
       <c r="H4">
-        <v>31.438858</v>
+        <v>89.705839</v>
       </c>
       <c r="I4">
-        <v>0.03655557182726898</v>
+        <v>0.09328277884630309</v>
       </c>
       <c r="J4">
-        <v>0.02735130335739091</v>
+        <v>0.07358468181289031</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N4">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O4">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P4">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q4">
-        <v>1.604717909465</v>
+        <v>8.825910808152749</v>
       </c>
       <c r="R4">
-        <v>6.418871637860001</v>
+        <v>35.30364323261099</v>
       </c>
       <c r="S4">
-        <v>7.792861991908615E-05</v>
+        <v>0.0005471076978281941</v>
       </c>
       <c r="T4">
-        <v>5.053032219384127E-05</v>
+        <v>0.0003835841603799928</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.719429</v>
+        <v>44.8529195</v>
       </c>
       <c r="H5">
-        <v>31.438858</v>
+        <v>89.705839</v>
       </c>
       <c r="I5">
-        <v>0.03655557182726898</v>
+        <v>0.09328277884630309</v>
       </c>
       <c r="J5">
-        <v>0.02735130335739091</v>
+        <v>0.07358468181289031</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N5">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O5">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P5">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q5">
-        <v>224.271357140776</v>
+        <v>344.9939151344576</v>
       </c>
       <c r="R5">
-        <v>1345.628142844656</v>
+        <v>2069.963490806746</v>
       </c>
       <c r="S5">
-        <v>0.01089110880253583</v>
+        <v>0.02138576185243066</v>
       </c>
       <c r="T5">
-        <v>0.01059298696829989</v>
+        <v>0.02249074415370533</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.719429</v>
+        <v>44.8529195</v>
       </c>
       <c r="H6">
-        <v>31.438858</v>
+        <v>89.705839</v>
       </c>
       <c r="I6">
-        <v>0.03655557182726898</v>
+        <v>0.09328277884630309</v>
       </c>
       <c r="J6">
-        <v>0.02735130335739091</v>
+        <v>0.07358468181289031</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N6">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O6">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P6">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q6">
-        <v>4.361491811101335</v>
+        <v>3.020051726747167</v>
       </c>
       <c r="R6">
-        <v>26.168950866608</v>
+        <v>18.120310360483</v>
       </c>
       <c r="S6">
-        <v>0.0002118036046228445</v>
+        <v>0.000187209409142956</v>
       </c>
       <c r="T6">
-        <v>0.0002060059140246893</v>
+        <v>0.0001968823441154149</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>768.9728700000001</v>
       </c>
       <c r="I7">
-        <v>0.596082783552044</v>
+        <v>0.5330899821806619</v>
       </c>
       <c r="J7">
-        <v>0.6689940913557841</v>
+        <v>0.630779719497357</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N7">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O7">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P7">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q7">
-        <v>8470.252183318125</v>
+        <v>6397.364442681811</v>
       </c>
       <c r="R7">
-        <v>50821.51309990876</v>
+        <v>38384.18665609087</v>
       </c>
       <c r="S7">
-        <v>0.4113340164768718</v>
+        <v>0.3965650014467061</v>
       </c>
       <c r="T7">
-        <v>0.4000745888374041</v>
+        <v>0.4170551439502695</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>768.9728700000001</v>
       </c>
       <c r="I8">
-        <v>0.596082783552044</v>
+        <v>0.5330899821806619</v>
       </c>
       <c r="J8">
-        <v>0.6689940913557841</v>
+        <v>0.630779719497357</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N8">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O8">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P8">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q8">
-        <v>50.07269372721</v>
+        <v>163.15417000792</v>
       </c>
       <c r="R8">
-        <v>450.65424354489</v>
+        <v>1468.38753007128</v>
       </c>
       <c r="S8">
-        <v>0.002431639788387159</v>
+        <v>0.01011373265427158</v>
       </c>
       <c r="T8">
-        <v>0.003547617931792293</v>
+        <v>0.01595444963353111</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>768.9728700000001</v>
       </c>
       <c r="I9">
-        <v>0.596082783552044</v>
+        <v>0.5330899821806619</v>
       </c>
       <c r="J9">
-        <v>0.6689940913557841</v>
+        <v>0.630779719497357</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N9">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O9">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P9">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q9">
-        <v>26.16686514465</v>
+        <v>50.438084002605</v>
       </c>
       <c r="R9">
-        <v>157.0011908679</v>
+        <v>302.62850401563</v>
       </c>
       <c r="S9">
-        <v>0.001270720340505982</v>
+        <v>0.00312659674693743</v>
       </c>
       <c r="T9">
-        <v>0.001235936969447898</v>
+        <v>0.003288145074858989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>768.9728700000001</v>
       </c>
       <c r="I10">
-        <v>0.596082783552044</v>
+        <v>0.5330899821806619</v>
       </c>
       <c r="J10">
-        <v>0.6689940913557841</v>
+        <v>0.630779719497357</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N10">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O10">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P10">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q10">
-        <v>3657.01555612776</v>
+        <v>1971.56219343002</v>
       </c>
       <c r="R10">
-        <v>32913.14000514984</v>
+        <v>17744.05974087018</v>
       </c>
       <c r="S10">
-        <v>0.1775926931647929</v>
+        <v>0.1222147919029747</v>
       </c>
       <c r="T10">
-        <v>0.2590971844742631</v>
+        <v>0.1927942737407596</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>768.9728700000001</v>
       </c>
       <c r="I11">
-        <v>0.596082783552044</v>
+        <v>0.5330899821806619</v>
       </c>
       <c r="J11">
-        <v>0.6689940913557841</v>
+        <v>0.630779719497357</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N11">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O11">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P11">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q11">
-        <v>71.11939573768001</v>
+        <v>17.25891253571</v>
       </c>
       <c r="R11">
-        <v>640.07456163912</v>
+        <v>155.33021282139</v>
       </c>
       <c r="S11">
-        <v>0.003453713781486041</v>
+        <v>0.001069859429772185</v>
       </c>
       <c r="T11">
-        <v>0.005038763142876837</v>
+        <v>0.001687707097937718</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2855083333333333</v>
+        <v>0.08220233333333334</v>
       </c>
       <c r="H12">
-        <v>0.856525</v>
+        <v>0.246607</v>
       </c>
       <c r="I12">
-        <v>0.0006639503500063851</v>
+        <v>0.0001709601552466038</v>
       </c>
       <c r="J12">
-        <v>0.0007451630433964634</v>
+        <v>0.000202288923777096</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N12">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O12">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P12">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q12">
-        <v>9.434640719270833</v>
+        <v>2.051613151341</v>
       </c>
       <c r="R12">
-        <v>56.607844315625</v>
+        <v>12.309678908046</v>
       </c>
       <c r="S12">
-        <v>0.0004581668381393645</v>
+        <v>0.000127177055429495</v>
       </c>
       <c r="T12">
-        <v>0.0004456254577667448</v>
+        <v>0.0001337481748662266</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2855083333333333</v>
+        <v>0.08220233333333334</v>
       </c>
       <c r="H13">
-        <v>0.856525</v>
+        <v>0.246607</v>
       </c>
       <c r="I13">
-        <v>0.0006639503500063851</v>
+        <v>0.0001709601552466038</v>
       </c>
       <c r="J13">
-        <v>0.0007451630433964634</v>
+        <v>0.000202288923777096</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N13">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O13">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P13">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q13">
-        <v>0.05577376740833333</v>
+        <v>0.05232299080088889</v>
       </c>
       <c r="R13">
-        <v>0.501963906675</v>
+        <v>0.470906917208</v>
       </c>
       <c r="S13">
-        <v>2.708496425560906E-06</v>
+        <v>3.243439874116692E-06</v>
       </c>
       <c r="T13">
-        <v>3.951535311029105E-06</v>
+        <v>5.116538065609785E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2855083333333333</v>
+        <v>0.08220233333333334</v>
       </c>
       <c r="H14">
-        <v>0.856525</v>
+        <v>0.246607</v>
       </c>
       <c r="I14">
-        <v>0.0006639503500063851</v>
+        <v>0.0001709601552466038</v>
       </c>
       <c r="J14">
-        <v>0.0007451630433964634</v>
+        <v>0.000202288923777096</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N14">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O14">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P14">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q14">
-        <v>0.02914611820833333</v>
+        <v>0.0161753230405</v>
       </c>
       <c r="R14">
-        <v>0.17487670925</v>
+        <v>0.097051938243</v>
       </c>
       <c r="S14">
-        <v>1.415399401089256E-06</v>
+        <v>1.002689007704522E-06</v>
       </c>
       <c r="T14">
-        <v>1.376655736575416E-06</v>
+        <v>1.054497010376648E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2855083333333333</v>
+        <v>0.08220233333333334</v>
       </c>
       <c r="H15">
-        <v>0.856525</v>
+        <v>0.246607</v>
       </c>
       <c r="I15">
-        <v>0.0006639503500063851</v>
+        <v>0.0001709601552466038</v>
       </c>
       <c r="J15">
-        <v>0.0007451630433964634</v>
+        <v>0.000202288923777096</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N15">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O15">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P15">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q15">
-        <v>4.073388504866666</v>
+        <v>0.6322733308331111</v>
       </c>
       <c r="R15">
-        <v>36.6604965438</v>
+        <v>5.690459977498</v>
       </c>
       <c r="S15">
-        <v>0.0001978126764250788</v>
+        <v>3.919387063267507E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002885969383182767</v>
+        <v>6.182847187364037E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2855083333333333</v>
+        <v>0.08220233333333334</v>
       </c>
       <c r="H16">
-        <v>0.856525</v>
+        <v>0.246607</v>
       </c>
       <c r="I16">
-        <v>0.0006639503500063851</v>
+        <v>0.0001709601552466038</v>
       </c>
       <c r="J16">
-        <v>0.0007451630433964634</v>
+        <v>0.000202288923777096</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N16">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O16">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P16">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q16">
-        <v>0.07921676148888888</v>
+        <v>0.005534874908777778</v>
       </c>
       <c r="R16">
-        <v>0.7129508534</v>
+        <v>0.049813874179</v>
       </c>
       <c r="S16">
-        <v>3.84693961529141E-06</v>
+        <v>3.431003026125344E-07</v>
       </c>
       <c r="T16">
-        <v>5.612456263837478E-06</v>
+        <v>5.412419612425688E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.877892</v>
+        <v>178.5463335</v>
       </c>
       <c r="H17">
-        <v>249.755784</v>
+        <v>357.092667</v>
       </c>
       <c r="I17">
-        <v>0.2904038531325748</v>
+        <v>0.3713314167141066</v>
       </c>
       <c r="J17">
-        <v>0.2172835353449225</v>
+        <v>0.2929190627035035</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N17">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O17">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P17">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q17">
-        <v>4126.59774600825</v>
+        <v>4456.175282116682</v>
       </c>
       <c r="R17">
-        <v>16506.390984033</v>
+        <v>17824.70112846673</v>
       </c>
       <c r="S17">
-        <v>0.200396633832576</v>
+        <v>0.2762329976715495</v>
       </c>
       <c r="T17">
-        <v>0.1299407904905195</v>
+        <v>0.1936704654343275</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.877892</v>
+        <v>178.5463335</v>
       </c>
       <c r="H18">
-        <v>249.755784</v>
+        <v>357.092667</v>
       </c>
       <c r="I18">
-        <v>0.2904038531325748</v>
+        <v>0.3713314167141066</v>
       </c>
       <c r="J18">
-        <v>0.2172835353449225</v>
+        <v>0.2929190627035035</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N18">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O18">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P18">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q18">
-        <v>24.394771324308</v>
+        <v>113.647359952308</v>
       </c>
       <c r="R18">
-        <v>146.368627945848</v>
+        <v>681.884159713848</v>
       </c>
       <c r="S18">
-        <v>0.001184663579394346</v>
+        <v>0.007044864470001706</v>
       </c>
       <c r="T18">
-        <v>0.001152235836209986</v>
+        <v>0.007408866024304335</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.877892</v>
+        <v>178.5463335</v>
       </c>
       <c r="H19">
-        <v>249.755784</v>
+        <v>357.092667</v>
       </c>
       <c r="I19">
-        <v>0.2904038531325748</v>
+        <v>0.3713314167141066</v>
       </c>
       <c r="J19">
-        <v>0.2172835353449225</v>
+        <v>0.2929190627035035</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N19">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O19">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P19">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q19">
-        <v>12.74815960482</v>
+        <v>35.13336550129575</v>
       </c>
       <c r="R19">
-        <v>50.99263841928001</v>
+        <v>140.533462005183</v>
       </c>
       <c r="S19">
-        <v>0.0006190785798876466</v>
+        <v>0.002177875477578443</v>
       </c>
       <c r="T19">
-        <v>0.0004014217130690761</v>
+        <v>0.0015269361769087</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>124.877892</v>
+        <v>178.5463335</v>
       </c>
       <c r="H20">
-        <v>249.755784</v>
+        <v>357.092667</v>
       </c>
       <c r="I20">
-        <v>0.2904038531325748</v>
+        <v>0.3713314167141066</v>
       </c>
       <c r="J20">
-        <v>0.2172835353449225</v>
+        <v>0.2929190627035035</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N20">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O20">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P20">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q20">
-        <v>1781.650867580448</v>
+        <v>1373.319715053723</v>
       </c>
       <c r="R20">
-        <v>10689.90520548269</v>
+        <v>8239.918290322337</v>
       </c>
       <c r="S20">
-        <v>0.08652087227871437</v>
+        <v>0.08513045327753219</v>
       </c>
       <c r="T20">
-        <v>0.08415254031076831</v>
+        <v>0.08952906412994246</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>124.877892</v>
+        <v>178.5463335</v>
       </c>
       <c r="H21">
-        <v>249.755784</v>
+        <v>357.092667</v>
       </c>
       <c r="I21">
-        <v>0.2904038531325748</v>
+        <v>0.3713314167141066</v>
       </c>
       <c r="J21">
-        <v>0.2172835353449225</v>
+        <v>0.2929190627035035</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N21">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O21">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P21">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q21">
-        <v>34.648453410464</v>
+        <v>12.0219412426665</v>
       </c>
       <c r="R21">
-        <v>207.890720462784</v>
+        <v>72.131647455999</v>
       </c>
       <c r="S21">
-        <v>0.001682604862002448</v>
+        <v>0.0007452258174448637</v>
       </c>
       <c r="T21">
-        <v>0.001636546994355612</v>
+        <v>0.0007837309380204922</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>32.233823</v>
+        <v>0.7601923333333334</v>
       </c>
       <c r="H22">
-        <v>96.701469</v>
+        <v>2.280577</v>
       </c>
       <c r="I22">
-        <v>0.07495983676913294</v>
+        <v>0.00158100864116523</v>
       </c>
       <c r="J22">
-        <v>0.08412873055771723</v>
+        <v>0.001870731434715147</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N22">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O22">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P22">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q22">
-        <v>1065.168695648938</v>
+        <v>18.972947912451</v>
       </c>
       <c r="R22">
-        <v>6391.012173893625</v>
+        <v>113.837687474706</v>
       </c>
       <c r="S22">
-        <v>0.05172692717102452</v>
+        <v>0.001176110441067088</v>
       </c>
       <c r="T22">
-        <v>0.05031100830663632</v>
+        <v>0.001236878966906432</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.7601923333333334</v>
+      </c>
+      <c r="H23">
+        <v>2.280577</v>
+      </c>
+      <c r="I23">
+        <v>0.00158100864116523</v>
+      </c>
+      <c r="J23">
+        <v>0.001870731434715147</v>
+      </c>
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>32.233823</v>
-      </c>
-      <c r="H23">
-        <v>96.701469</v>
-      </c>
-      <c r="I23">
-        <v>0.07495983676913294</v>
-      </c>
-      <c r="J23">
-        <v>0.08412873055771723</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N23">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O23">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P23">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q23">
-        <v>6.296845089227</v>
+        <v>0.4838735696542222</v>
       </c>
       <c r="R23">
-        <v>56.671605803043</v>
+        <v>4.354862126888</v>
       </c>
       <c r="S23">
-        <v>0.0003057886029397726</v>
+        <v>2.99947462066909E-05</v>
       </c>
       <c r="T23">
-        <v>0.0004461273977780991</v>
+        <v>4.731682000938403E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>32.233823</v>
+        <v>0.7601923333333334</v>
       </c>
       <c r="H24">
-        <v>96.701469</v>
+        <v>2.280577</v>
       </c>
       <c r="I24">
-        <v>0.07495983676913294</v>
+        <v>0.00158100864116523</v>
       </c>
       <c r="J24">
-        <v>0.08412873055771723</v>
+        <v>0.001870731434715147</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N24">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O24">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P24">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q24">
-        <v>3.290589820955</v>
+        <v>0.1495864662955</v>
       </c>
       <c r="R24">
-        <v>19.74353892573</v>
+        <v>0.897518797773</v>
       </c>
       <c r="S24">
-        <v>0.0001597982561011661</v>
+        <v>9.272686862594154E-06</v>
       </c>
       <c r="T24">
-        <v>0.0001554241055825804</v>
+        <v>9.751797915037871E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>32.233823</v>
+        <v>0.7601923333333334</v>
       </c>
       <c r="H25">
-        <v>96.701469</v>
+        <v>2.280577</v>
       </c>
       <c r="I25">
-        <v>0.07495983676913294</v>
+        <v>0.00158100864116523</v>
       </c>
       <c r="J25">
-        <v>0.08412873055771723</v>
+        <v>0.001870731434715147</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N25">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O25">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P25">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q25">
-        <v>459.884594411512</v>
+        <v>5.847149578119778</v>
       </c>
       <c r="R25">
-        <v>4138.961349703608</v>
+        <v>52.624346203078</v>
       </c>
       <c r="S25">
-        <v>0.02233300417048748</v>
+        <v>0.000362457837392508</v>
       </c>
       <c r="T25">
-        <v>0.03258252576898484</v>
+        <v>0.000571778541972333</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>32.233823</v>
+        <v>0.7601923333333334</v>
       </c>
       <c r="H26">
-        <v>96.701469</v>
+        <v>2.280577</v>
       </c>
       <c r="I26">
-        <v>0.07495983676913294</v>
+        <v>0.00158100864116523</v>
       </c>
       <c r="J26">
-        <v>0.08412873055771723</v>
+        <v>0.001870731434715147</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N26">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O26">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P26">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q26">
-        <v>8.943553551149334</v>
+        <v>0.05118552358544445</v>
       </c>
       <c r="R26">
-        <v>80.49198196034401</v>
+        <v>0.4606697122690001</v>
       </c>
       <c r="S26">
-        <v>0.0004343185685799879</v>
+        <v>3.172929636349276E-06</v>
       </c>
       <c r="T26">
-        <v>0.0006336449787353967</v>
+        <v>5.005307911959895E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.5736413333333333</v>
+        <v>0.2614996666666667</v>
       </c>
       <c r="H27">
-        <v>1.720924</v>
+        <v>0.7844990000000001</v>
       </c>
       <c r="I27">
-        <v>0.001334004368972754</v>
+        <v>0.0005438534625164957</v>
       </c>
       <c r="J27">
-        <v>0.00149717634078867</v>
+        <v>0.0006435156277567465</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N27">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O27">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P27">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q27">
-        <v>18.95601371258334</v>
+        <v>6.526531954137001</v>
       </c>
       <c r="R27">
-        <v>113.7360822755</v>
+        <v>39.159191724822</v>
       </c>
       <c r="S27">
-        <v>0.0009205455856608362</v>
+        <v>0.0004045719416212167</v>
       </c>
       <c r="T27">
-        <v>0.0008953475325084235</v>
+        <v>0.0004254757952303863</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.5736413333333333</v>
+        <v>0.2614996666666667</v>
       </c>
       <c r="H28">
-        <v>1.720924</v>
+        <v>0.7844990000000001</v>
       </c>
       <c r="I28">
-        <v>0.001334004368972754</v>
+        <v>0.0005438534625164957</v>
       </c>
       <c r="J28">
-        <v>0.00149717634078867</v>
+        <v>0.0006435156277567465</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N28">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O28">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P28">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q28">
-        <v>0.1120602608253333</v>
+        <v>0.1664483731617778</v>
       </c>
       <c r="R28">
-        <v>1.008542347428</v>
+        <v>1.498035358456</v>
       </c>
       <c r="S28">
-        <v>5.441891950219755E-06</v>
+        <v>1.031793638381989E-05</v>
       </c>
       <c r="T28">
-        <v>7.939396927815828E-06</v>
+        <v>1.627658175125934E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.5736413333333333</v>
+        <v>0.2614996666666667</v>
       </c>
       <c r="H29">
-        <v>1.720924</v>
+        <v>0.7844990000000001</v>
       </c>
       <c r="I29">
-        <v>0.001334004368972754</v>
+        <v>0.0005438534625164957</v>
       </c>
       <c r="J29">
-        <v>0.00149717634078867</v>
+        <v>0.0006435156277567465</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N29">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O29">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P29">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q29">
-        <v>0.05856017551333334</v>
+        <v>0.0514564661585</v>
       </c>
       <c r="R29">
-        <v>0.35136105308</v>
+        <v>0.308738796951</v>
       </c>
       <c r="S29">
-        <v>2.843810512150991E-06</v>
+        <v>3.189725043714048E-06</v>
       </c>
       <c r="T29">
-        <v>2.765967014168075E-06</v>
+        <v>3.354535151652101E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.5736413333333333</v>
+        <v>0.2614996666666667</v>
       </c>
       <c r="H30">
-        <v>1.720924</v>
+        <v>0.7844990000000001</v>
       </c>
       <c r="I30">
-        <v>0.001334004368972754</v>
+        <v>0.0005438534625164957</v>
       </c>
       <c r="J30">
-        <v>0.00149717634078867</v>
+        <v>0.0006435156277567465</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N30">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O30">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P30">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q30">
-        <v>8.184223507018666</v>
+        <v>2.011369489776222</v>
       </c>
       <c r="R30">
-        <v>73.65801156316799</v>
+        <v>18.102325407986</v>
       </c>
       <c r="S30">
-        <v>0.0003974438368572457</v>
+        <v>0.0001246823987861779</v>
       </c>
       <c r="T30">
-        <v>0.0005798469367250716</v>
+        <v>0.0001966869324731212</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.5736413333333333</v>
+        <v>0.2614996666666667</v>
       </c>
       <c r="H31">
-        <v>1.720924</v>
+        <v>0.7844990000000001</v>
       </c>
       <c r="I31">
-        <v>0.001334004368972754</v>
+        <v>0.0005438534625164957</v>
       </c>
       <c r="J31">
-        <v>0.00149717634078867</v>
+        <v>0.0006435156277567465</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N31">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O31">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P31">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q31">
-        <v>0.1591617594915556</v>
+        <v>0.01760738272255556</v>
       </c>
       <c r="R31">
-        <v>1.432455835424</v>
+        <v>0.158466444503</v>
       </c>
       <c r="S31">
-        <v>7.729243992301163E-06</v>
+        <v>1.091460681567152E-06</v>
       </c>
       <c r="T31">
-        <v>1.12765076131908E-05</v>
+        <v>1.721783150327582E-06</v>
       </c>
     </row>
   </sheetData>
